--- a/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
+++ b/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODES\oktatas-szgui-19202\LA-00-tovabbi-anyagok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEDA7E-CBBB-4FDE-A6A0-C5269BFD03F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE23DB-3FA8-4265-8FF5-A49A7430C759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
   <si>
     <t>Időbélyeg</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>OK, kieg: […]</t>
+  </si>
+  <si>
+    <t>OK, kieg: az ellenségek nem kerültek szóba de itt is szerintem azzal a résszel lehetne még kicsit tuningolni a játékot (AI, változatos ellenségek, más sebzések, más támadások stb.)</t>
   </si>
 </sst>
 </file>
@@ -742,137 +745,137 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1094,85 +1097,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D2679-3EEB-4524-B038-A0FCED2F4BC1}">
   <dimension ref="B2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="49" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="10" spans="2:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1184,7 +1187,7 @@
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1192,197 +1195,197 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+      <c r="B11" s="26">
         <v>43885.511494525461</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="30">
+      <c r="B12" s="26">
         <v>43885.64780903935</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="30">
+      <c r="B13" s="26">
         <v>43886.608116967589</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="30">
+      <c r="B14" s="26">
         <v>43886.820406990737</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="30">
+      <c r="B15" s="26">
         <v>43886.851960706015</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="30">
+      <c r="B16" s="26">
         <v>43886.90163177083</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="30">
+      <c r="B17" s="26">
         <v>43887.453005150463</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="30">
+      <c r="B18" s="26">
         <v>43887.484784375003</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="30">
+      <c r="B19" s="26">
         <v>43887.626050833336</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="30">
+      <c r="B20" s="26">
         <v>43887.630072094908</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="30">
+      <c r="B21" s="26">
         <v>43887.687368206018</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39">
+      <c r="B22" s="35">
         <v>43887.745068009259</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1396,7 +1399,7 @@
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1404,172 +1407,172 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="30">
+      <c r="B24" s="26">
         <v>43885.427448703704</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="30">
+      <c r="B25" s="26">
         <v>43885.462911273149</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="30">
+      <c r="B26" s="26">
         <v>43885.502090810187</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="30">
+      <c r="B27" s="26">
         <v>43885.538854918981</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="30">
+      <c r="B28" s="26">
         <v>43885.573798437501</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="30">
+      <c r="B29" s="26">
         <v>43886.747171469906</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="34" t="s">
+      <c r="E29" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="30">
+      <c r="B30" s="26">
         <v>43886.892663692124</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="32" t="s">
+      <c r="E30" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="30">
+      <c r="B31" s="26">
         <v>43887.409573020836</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="30">
+      <c r="B32" s="26">
         <v>43887.659360162041</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39">
+      <c r="B33" s="35">
         <v>43887.705975868055</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="40" t="s">
+      <c r="E33" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1583,7 +1586,7 @@
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1591,181 +1594,181 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="30">
+      <c r="B35" s="26">
         <v>43885.434005497686</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B36" s="30">
+      <c r="B36" s="26">
         <v>43885.447732685185</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="30">
+      <c r="B37" s="26">
         <v>43885.526888564811</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="30">
+      <c r="B38" s="26">
         <v>43885.616151099537</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="30">
+      <c r="B39" s="26">
         <v>43886.665928969909</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="30">
+      <c r="B40" s="26">
         <v>43886.707147141205</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="30">
+      <c r="B41" s="26">
         <v>43886.769263622686</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="30">
+      <c r="B42" s="26">
         <v>43886.821222361112</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="30">
+      <c r="B43" s="26">
         <v>43887.619526296301</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="32" t="s">
+      <c r="E43" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="B44" s="30">
+      <c r="B44" s="26">
         <v>43887.647700868052</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="39">
+    <row r="45" spans="2:6" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="35">
         <v>43887.750691909721</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="40" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="36" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1779,7 +1782,7 @@
       <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="8" t="s">
         <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1787,192 +1790,192 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B47" s="30">
+      <c r="B47" s="26">
         <v>43885.46821392361</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="30">
+      <c r="B48" s="26">
         <v>43885.601570312501</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="30">
+      <c r="B49" s="26">
         <v>43885.747081354166</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="32" t="s">
+      <c r="E49" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="30">
+      <c r="B50" s="26">
         <v>43885.836035868051</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="30">
+      <c r="B51" s="26">
         <v>43885.848151944447</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="45" t="s">
+      <c r="E51" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="30">
+      <c r="B52" s="26">
         <v>43885.864820486109</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="32" t="s">
+      <c r="E52" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="B53" s="30">
+      <c r="B53" s="26">
         <v>43885.904910752317</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="30">
+      <c r="B54" s="26">
         <v>43885.927248460648</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="30">
+      <c r="B55" s="26">
         <v>43886.608970370369</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="30">
+      <c r="B56" s="26">
         <v>43887.540528796293</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="45" t="s">
+      <c r="E56" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="30">
+      <c r="B57" s="26">
         <v>43887.637286458332</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="39">
+      <c r="B58" s="35">
         <v>43887.725715740744</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="40" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="36" t="s">
         <v>121</v>
       </c>
     </row>

--- a/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
+++ b/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODES\oktatas-szgui-19202\LA-00-tovabbi-anyagok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE23DB-3FA8-4265-8FF5-A49A7430C759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91421DE4-ABB1-41A7-B9EA-DB93135A133F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D2679-3EEB-4524-B038-A0FCED2F4BC1}">
   <dimension ref="B2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
+++ b/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODES\oktatas-szgui-19202\LA-00-tovabbi-anyagok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91421DE4-ABB1-41A7-B9EA-DB93135A133F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C26D06-D738-4EE4-AC9A-147F4D382F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>Időbélyeg</t>
   </si>
@@ -495,13 +495,20 @@
   </si>
   <si>
     <t>OK, kieg: az ellenségek nem kerültek szóba de itt is szerintem azzal a résszel lehetne még kicsit tuningolni a játékot (AI, változatos ellenségek, más sebzések, más támadások stb.)</t>
+  </si>
+  <si>
+    <t>[ÚJ] MotherLoad szerű miner játékot csinálnánk, ahol különböző értékű dolgokat kell gyűjteni, korlátolt férőhellyel, üzemanyag/staminával, amit a felszínen tölteni kell, valamint az összegyűjtött dolgokat eladni, és abból fejleszteni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ÚJ] Tower defense játék ellenkezője. A játékos inváziót indít a vár ellen. A játékos dolga, hogy fejlessze a sereget amivel támad. Az úton tornyok védik a várat.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -609,6 +616,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -732,7 +747,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1095,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D2679-3EEB-4524-B038-A0FCED2F4BC1}">
-  <dimension ref="B2:F58"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1130,10 +1148,10 @@
       <c r="B4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="24"/>
       <c r="F4" s="9"/>
     </row>
@@ -1141,10 +1159,10 @@
       <c r="B5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="24"/>
       <c r="F5" s="9"/>
     </row>
@@ -1152,10 +1170,10 @@
       <c r="B6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="24"/>
       <c r="F6" s="9"/>
     </row>
@@ -1163,10 +1181,10 @@
       <c r="B7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="24"/>
       <c r="F7" s="9"/>
     </row>
@@ -1293,7 +1311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>43887.453005150463</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>43887.484784375003</v>
       </c>
@@ -1323,8 +1341,11 @@
       <c r="F18" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G18" s="46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>43887.626050833336</v>
       </c>
@@ -1341,7 +1362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>43887.630072094908</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="26">
         <v>43887.687368206018</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35">
         <v>43887.745068009259</v>
       </c>
@@ -1389,7 +1410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="26">
         <v>43885.427448703704</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B25" s="26">
         <v>43885.462911273149</v>
       </c>
@@ -1439,8 +1460,11 @@
       <c r="F25" s="28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="26">
         <v>43885.502090810187</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="26">
         <v>43885.538854918981</v>
       </c>
@@ -1474,7 +1498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="26">
         <v>43885.573798437501</v>
       </c>
@@ -1491,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="26">
         <v>43886.747171469906</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="26">
         <v>43886.892663692124</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="26">
         <v>43887.409573020836</v>
       </c>
@@ -1542,7 +1566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="26">
         <v>43887.659360162041</v>
       </c>
@@ -1990,5 +2014,6 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
+++ b/LA-00-tovabbi-anyagok/Prog4 _ SzGUI féléves feladatok témabekérő (válaszok).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODES\oktatas-szgui-19202\LA-00-tovabbi-anyagok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C26D06-D738-4EE4-AC9A-147F4D382F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095EB780-E4C9-4FDF-9F59-14D2A345F06B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7425" yWindow="945" windowWidth="30105" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
   <si>
     <t>Időbélyeg</t>
   </si>
@@ -106,9 +106,6 @@
     <t>LA-07 GROUP 11 :  Koczka Bence - Torma László Márk</t>
   </si>
   <si>
-    <t>Dower Tefense</t>
-  </si>
-  <si>
     <t>klasszik tower defense játék. a pontos tematika még kidolgozás alatt( reméljük még nem nyúlták le ezt az ötletet,  de tower defenseből lehet annyi félét csinálni, talán itt nem baj ha más csapat is hasonlótban gondolkodik?)</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Sunny Land Platformer</t>
   </si>
   <si>
-    <t>2D platformer játék Sunny Land asseteket felhasználva (Super Mariohoz hasonló)</t>
-  </si>
-  <si>
     <t>LA-05 GROUP 05 :  Vékony Martin Gábor - Németh Bálint</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
   </si>
   <si>
     <t>LA-05 GROUP 07 :  Kerekes Barnabás Imre - Nánási Nikolett</t>
-  </si>
-  <si>
-    <t>Szuper Tornyok</t>
   </si>
   <si>
     <t>Tower Defense stílusú játék modern köntösben</t>
@@ -502,6 +493,21 @@
   <si>
     <t xml:space="preserve">[ÚJ] Tower defense játék ellenkezője. A játékos inváziót indít a vár ellen. A játékos dolga, hogy fejlessze a sereget amivel támad. Az úton tornyok védik a várat.
 </t>
+  </si>
+  <si>
+    <t>Good South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ÚJ] A játékunk a Bad North-hoz hasonlítana. Szigetvédő típusú. Van több egységünk a szigeten amiket irányítani tudunk és a szigetet hajókon AI ellenfelek támadják. A szigeten lévő épületeket kell megvédenünk és minden egységünknek életben kell maradnia a hullámok végére. Egy hullám végén lehetôségünk van fejlesztéseket vásárolni abból a pénzből amit az elhullott ellenfelekért kaptunk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az ötlet egy funkcióiban Super Mario-hoz hasonló 2D platformer (mászkáló ellenségek, gyűjtögethető coinok, láva), azonban pár egyedi vonást is tervezünk bele programozni (procedúrálisan generált, folyamatosan nehezedő pálya, fake ground, checkpointok, haladásra ösztönző time limit, double jump, esetleg skin shop). Sunny Land assetek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ÚJ] A játék egy basedefense játék, melyben egy lövegtoronnyal védjük a bázisunk a beérkező ellenfelektől. A lövegtorony célzásának szögét tudjuk állítani, a lövedékek pedíg íves pályán repülnek ( talán a worms játékok célzásához hasonlítható).  Az ellenfelek hullámokban jönnek, a hullámok között van lehetőségünk különböző upgradeket létesíteni a bázuson ( lövegtorony sebzése, pontossága, automata lövegek, védelmi akadályok stb.) </t>
+  </si>
+  <si>
+    <t>Cannon Mayhem Deluxe 2020: Ultimate Base Defense Edition</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,6 +887,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D2679-3EEB-4524-B038-A0FCED2F4BC1}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1128,74 +1137,74 @@
     <col min="6" max="6" width="21.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="47"/>
+        <v>144</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="24"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:6" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="49"/>
       <c r="E5" s="24"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="49"/>
+        <v>149</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="24"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="2:6" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="50"/>
+        <v>126</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="51"/>
       <c r="E7" s="24"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="25"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="10" spans="2:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1215,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>43885.511494525461</v>
       </c>
@@ -1220,95 +1229,98 @@
         <v>22</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>43885.64780903935</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>43886.608116967589</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>43886.820406990737</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>43886.851960706015</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>43886.90163177083</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1316,16 +1328,16 @@
         <v>43887.453005150463</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -1333,16 +1345,16 @@
         <v>43887.484784375003</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -1350,16 +1362,16 @@
         <v>43887.626050833336</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -1367,13 +1379,13 @@
         <v>43887.630072094908</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -1381,16 +1393,16 @@
         <v>43887.687368206018</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1398,16 +1410,16 @@
         <v>43887.745068009259</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>3</v>
@@ -1438,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>6</v>
@@ -1455,13 +1467,13 @@
         <v>15</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1475,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>21</v>
@@ -1486,16 +1498,16 @@
         <v>43885.538854918981</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="E27" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -1503,16 +1515,16 @@
         <v>43885.573798437501</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="E28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1520,16 +1532,16 @@
         <v>43886.747171469906</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -1537,16 +1549,16 @@
         <v>43886.892663692124</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -1557,13 +1569,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -1571,36 +1583,36 @@
         <v>43887.659360162041</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
         <v>43887.705975868055</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="26">
         <v>43885.434005497686</v>
       </c>
@@ -1628,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B36" s="26">
         <v>43885.447732685185</v>
       </c>
@@ -1645,13 +1657,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B37" s="26">
         <v>43885.526888564811</v>
       </c>
@@ -1659,144 +1671,147 @@
         <v>24</v>
       </c>
       <c r="D37" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G37" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="26">
         <v>43885.616151099537</v>
       </c>
       <c r="C38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="E38" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="26">
         <v>43886.665928969909</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="26">
         <v>43886.707147141205</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="26">
         <v>43886.769263622686</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="26">
         <v>43886.821222361112</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="26">
         <v>43887.619526296301</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="153" x14ac:dyDescent="0.2">
       <c r="B44" s="26">
         <v>43887.647700868052</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
         <v>43887.750691909721</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
         <v>43885.46821392361</v>
       </c>
@@ -1821,27 +1836,27 @@
         <v>17</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="26">
         <v>43885.601570312501</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="E48" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -1849,16 +1864,16 @@
         <v>43885.747081354166</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="E49" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -1866,13 +1881,13 @@
         <v>43885.836035868051</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -1880,16 +1895,16 @@
         <v>43885.848151944447</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="E51" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="41" t="s">
         <v>48</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -1897,13 +1912,13 @@
         <v>43885.864820486109</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -1911,16 +1926,16 @@
         <v>43885.904910752317</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="E53" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>53</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -1928,16 +1943,16 @@
         <v>43885.927248460648</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>56</v>
-      </c>
       <c r="E54" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
@@ -1945,16 +1960,16 @@
         <v>43886.608970370369</v>
       </c>
       <c r="C55" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -1962,13 +1977,13 @@
         <v>43887.540528796293</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1976,16 +1991,16 @@
         <v>43887.637286458332</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1993,14 +2008,14 @@
         <v>43887.725715740744</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
